--- a/evaluation/results/LOF/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/LOF/split_2/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2136986301369863</v>
       </c>
       <c r="H2">
-        <v>0.5846709470304975</v>
+        <v>0.7470572498662386</v>
       </c>
       <c r="I2">
         <v>6</v>
